--- a/xlsx/_wiki_火影忍者_intext.xlsx
+++ b/xlsx/_wiki_火影忍者_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="659">
   <si>
     <t>火影忍者</t>
   </si>
@@ -23,79 +23,79 @@
     <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%A9%E6%B8%A6%E9%B3%B4%E4%BA%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%BC%A9%E6%B8%A6%E9%B3%B4%E4%BA%BA</t>
   </si>
   <si>
     <t>漩涡鸣人</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B3%B4%E9%96%80%E5%B8%82</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B3%B4%E9%96%80%E5%B8%82</t>
   </si>
   <si>
     <t>鸣门市</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%B9%B4%E6%BC%AB%E7%95%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%91%E5%B9%B4%E6%BC%AB%E7%95%AB</t>
   </si>
   <si>
     <t>少年漫画</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%AB%E7%95%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%BC%AB%E7%95%AB</t>
   </si>
   <si>
     <t>漫画</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B2%B8%E6%9C%AC%E9%BD%90%E5%8F%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B2%B8%E6%9C%AC%E9%BD%90%E5%8F%B2</t>
   </si>
   <si>
     <t>岸本齐史</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E8%8B%B1%E7%A4%BE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%86%E8%8B%B1%E7%A4%BE</t>
   </si>
   <si>
     <t>集英社</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E7%AB%8B%E5%87%BA%E7%89%88%E7%A4%BE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%B1%E7%AB%8B%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
     <t>东立出版社</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E6%96%87%E7%A4%BE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AD%A3%E6%96%87%E7%A4%BE</t>
   </si>
   <si>
     <t>正文社</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%9E%E7%8E%AF%E7%94%BB%E5%87%BA%E7%89%88%E7%A4%BE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%BF%9E%E7%8E%AF%E7%94%BB%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
     <t>连环画出版社</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E4%B8%AD%E5%B0%91%E5%8A%A8%E6%BC%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8C%97%E4%BA%AC%E4%B8%AD%E5%B0%91%E5%8A%A8%E6%BC%AB</t>
   </si>
   <si>
     <t>北京中少动漫</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%97%9D%E5%87%BA%E7%89%88%E7%A4%BE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%89%B5%E8%97%9D%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
     <t>创艺出版社</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Viz_Media</t>
+    <t>https://zh.wikipedia.org/zh-cn/Viz_Media</t>
   </si>
   <si>
     <t>Viz Media</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%85%83%E5%87%BA%E7%89%88%E7%A4%BE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A7%E5%85%83%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
     <t>大元出版社</t>
@@ -125,13 +125,13 @@
     <t>es-Glénat Editions</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E5%88%8A%E5%B0%91%E5%B9%B4JUMP</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%91%A8%E5%88%8A%E5%B0%91%E5%B9%B4JUMP</t>
   </si>
   <si>
     <t>周刊少年JUMP</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E5%B3%B6%E5%B0%91%E5%B9%B4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AF%B6%E5%B3%B6%E5%B0%91%E5%B9%B4</t>
   </si>
   <si>
     <t>宝岛少年</t>
@@ -143,388 +143,388 @@
     <t>ko-코믹챔프</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A2%E6%9B%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8F%A2%E6%9B%B8</t>
   </si>
   <si>
     <t>丛书</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%A4%96%E5%82%B3%EF%BD%9E%E7%AC%AC%E4%B8%83%E4%BB%A3%E7%81%AB%E5%BD%B1%E8%88%87%E7%B7%8B%E8%89%B2%E7%9A%84%E8%8A%B1%E6%9C%88%EF%BD%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%A4%96%E5%82%B3%EF%BD%9E%E7%AC%AC%E4%B8%83%E4%BB%A3%E7%81%AB%E5%BD%B1%E8%88%87%E7%B7%8B%E8%89%B2%E7%9A%84%E8%8A%B1%E6%9C%88%EF%BD%9E</t>
   </si>
   <si>
     <t>火影忍者外传～第七代火影与绯色的花月～</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E5%8B%95%E7%95%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%BB%E8%A6%96%E5%8B%95%E7%95%AB</t>
   </si>
   <si>
     <t>电视动画</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%A7%E6%9C%AC%E7%BB%9F%E7%AD%B9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%89%A7%E6%9C%AC%E7%BB%9F%E7%AD%B9</t>
   </si>
   <si>
     <t>剧本统筹</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9A%85%E6%B2%A2%E5%85%8B%E4%B9%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9A%85%E6%B2%A2%E5%85%8B%E4%B9%8B</t>
   </si>
   <si>
     <t>隅沢克之</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%89%A9%E8%A8%AD%E8%A8%88</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%BA%E7%89%A9%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
     <t>人物设计</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B0%BE%E9%90%B5%E4%B9%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A5%BF%E5%B0%BE%E9%90%B5%E4%B9%9F</t>
   </si>
   <si>
     <t>西尾铁也</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%88%B4%E6%9C%A8%E5%8D%9A%E6%96%87_(%E5%8B%95%E7%95%AB%E5%B8%AB)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%88%B4%E6%9C%A8%E5%8D%9A%E6%96%87_(%E5%8B%95%E7%95%AB%E5%B8%AB)</t>
   </si>
   <si>
     <t>铃木博文 (动画师)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Studio_Pierrot</t>
+    <t>https://zh.wikipedia.org/zh-cn/Studio_Pierrot</t>
   </si>
   <si>
     <t>Studio Pierrot</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E8%BF%AA%E5%82%B3%E6%92%AD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9B%BC%E8%BF%AA%E5%82%B3%E6%92%AD</t>
   </si>
   <si>
     <t>曼迪传播</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%B1%E4%BA%AC%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
     <t>东京电视网</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E9%9B%BB%E8%A6%96%E5%85%AC%E5%8F%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E8%8F%AF%E9%9B%BB%E8%A6%96%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
     <t>中华电视公司</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%A3%AE%E5%AA%92%E9%AB%94%E9%9B%86%E5%9C%98</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%B1%E6%A3%AE%E5%AA%92%E9%AB%94%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
     <t>东森媒体集团</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B7%AF%E4%BE%86%E7%B6%9C%E5%90%88%E5%8F%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B7%AF%E4%BE%86%E7%B6%9C%E5%90%88%E5%8F%B0</t>
   </si>
   <si>
     <t>纬来综合台</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/MOMO%E8%A6%AA%E5%AD%90%E5%8F%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/MOMO%E8%A6%AA%E5%AD%90%E5%8F%B0</t>
   </si>
   <si>
     <t>MOMO亲子台</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Animax</t>
+    <t>https://zh.wikipedia.org/zh-cn/Animax</t>
   </si>
   <si>
     <t>Animax</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BF%A1%E7%BF%A0%E5%8F%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BF%A1%E7%BF%A0%E5%8F%B0</t>
   </si>
   <si>
     <t>翡翠台</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/J2</t>
+    <t>https://zh.wikipedia.org/zh-cn/J2</t>
   </si>
   <si>
     <t>J2</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%B8%AD%E5%A4%AE%E7%94%B5%E8%A7%86%E5%8F%B0%E7%94%B5%E5%BD%B1%E9%A2%91%E9%81%93</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E4%B8%AD%E5%A4%AE%E7%94%B5%E8%A7%86%E5%8F%B0%E7%94%B5%E5%BD%B1%E9%A2%91%E9%81%93</t>
   </si>
   <si>
     <t>中国中央电视台电影频道</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E7%A9%BA%E5%8D%AB%E8%A7%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%98%9F%E7%A9%BA%E5%8D%AB%E8%A7%86</t>
   </si>
   <si>
     <t>星空卫视</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E8%A5%BF%E7%94%B5%E8%A7%86%E5%8F%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B1%9F%E8%A5%BF%E7%94%B5%E8%A7%86%E5%8F%B0</t>
   </si>
   <si>
     <t>江西电视台</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%B1%86%E7%B6%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9C%9F%E8%B1%86%E7%B6%B2</t>
   </si>
   <si>
     <t>土豆网</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E9%9B%BB%E4%BF%A1MOD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E8%8F%AF%E9%9B%BB%E4%BF%A1MOD</t>
   </si>
   <si>
     <t>中华电信MOD</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%8A%A8%E7%94%BB%E9%9B%86%E6%95%B0%E5%88%97%E8%A1%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%8A%A8%E7%94%BB%E9%9B%86%E6%95%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
     <t>火影忍者动画集数列表</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3</t>
   </si>
   <si>
     <t>火影忍者疾风传</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/BORUTO-%E7%81%AB%E5%BD%B1%E6%96%B0%E4%B8%96%E4%BB%A3-NARUTO_NEXT_GENERATIONS</t>
+    <t>https://zh.wikipedia.org/zh-cn/BORUTO-%E7%81%AB%E5%BD%B1%E6%96%B0%E4%B8%96%E4%BB%A3-NARUTO_NEXT_GENERATIONS</t>
   </si>
   <si>
     <t>BORUTO-火影新世代-NARUTO NEXT GENERATIONS</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
     <t>日语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%AB%E7%95%AB%E5%AE%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%BC%AB%E7%95%AB%E5%AE%B6</t>
   </si>
   <si>
     <t>漫画家</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%8D%E8%80%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BF%8D%E8%80%85</t>
   </si>
   <si>
     <t>忍者</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E6%99%BA%E6%B3%A2%E4%BD%90%E5%8A%A9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AE%87%E6%99%BA%E6%B3%A2%E4%BD%90%E5%8A%A9</t>
   </si>
   <si>
     <t>宇智波佐助</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%B1%E5%88%8A%E5%B0%91%E5%B9%B4Jump</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%80%B1%E5%88%8A%E5%B0%91%E5%B9%B4Jump</t>
   </si>
   <si>
     <t>周刊少年Jump</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%AC%E7%94%B5%E8%A7%86%E5%8F%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%9C%E4%BA%AC%E7%94%B5%E8%A7%86%E5%8F%B0</t>
   </si>
   <si>
     <t>东京电视台</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E5%91%A8%E5%88%8A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%B0%E9%97%BB%E5%91%A8%E5%88%8A</t>
   </si>
   <si>
     <t>新闻周刊</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E8%A7%92%E8%89%B2%E5%88%97%E8%A1%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E8%A7%92%E8%89%B2%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
     <t>火影忍者角色列表</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%BF%8D%E8%80%85%E5%88%86%E7%B1%BB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%BF%8D%E8%80%85%E5%88%86%E7%B1%BB</t>
   </si>
   <si>
     <t>火影忍者忍者分类</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E8%A1%93%E5%88%97%E8%A1%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E8%A1%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
     <t>火影忍者术列表</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BE%E7%8D%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%BE%E7%8D%B8</t>
   </si>
   <si>
     <t>尾兽</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%9C%B0%E7%90%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%9C%B0%E7%90%86</t>
   </si>
   <si>
     <t>火影忍者地理</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/ISBN</t>
+    <t>https://zh.wikipedia.org/zh-cn/ISBN</t>
   </si>
   <si>
     <t>ISBN</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E6%BE%B3%E5%9C%B0%E5%8D%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B8%AF%E6%BE%B3%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
     <t>港澳地区</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%85%BE%E8%AE%AF%E5%8A%A8%E6%BC%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%85%BE%E8%AE%AF%E5%8A%A8%E6%BC%AB</t>
   </si>
   <si>
     <t>腾讯动漫</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BC%95%E5%B0%8F%E8%AA%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%BC%95%E5%B0%8F%E8%AA%AA</t>
   </si>
   <si>
     <t>轻小说</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/OVA</t>
+    <t>https://zh.wikipedia.org/zh-cn/OVA</t>
   </si>
   <si>
     <t>OVA</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%8B%95%E7%95%AB%E9%9B%86%E6%95%B8%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ASIAN_KUNG-FU_GENERATION</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%8B%95%E7%95%AB%E9%9B%86%E6%95%B8%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/ASIAN_KUNG-FU_GENERATION</t>
   </si>
   <si>
     <t>ASIAN KUNG-FU GENERATION</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/FLOW</t>
+    <t>https://zh.wikipedia.org/zh-cn/FLOW</t>
   </si>
   <si>
     <t>FLOW</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E3%82%B5%E3%83%B3%E3%83%9C%E3%83%9E%E3%82%B9%E3%82%BF%E3%83%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E3%82%B5%E3%83%B3%E3%83%9C%E3%83%9E%E3%82%B9%E3%82%BF%E3%83%BC</t>
   </si>
   <si>
     <t>サンボマスター</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Hearts_Grow</t>
+    <t>https://zh.wikipedia.org/zh-cn/Hearts_Grow</t>
   </si>
   <si>
     <t>Hearts Grow</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%84%AD%E6%AB%BB%E7%B6%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%84%AD%E6%AB%BB%E7%B6%B8</t>
   </si>
   <si>
     <t>郑樱纶</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E8%AB%BE%E8%A8%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%83%A1%E8%AB%BE%E8%A8%80</t>
   </si>
   <si>
     <t>胡诺言</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E6%B2%9B%E8%A8%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AE%8B%E6%B2%9B%E8%A8%80</t>
   </si>
   <si>
     <t>宋沛言</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/STONED_TOWN</t>
+    <t>https://zh.wikipedia.org/zh-cn/STONED_TOWN</t>
   </si>
   <si>
     <t>STONED TOWN</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Akeboshi</t>
+    <t>https://zh.wikipedia.org/zh-cn/Akeboshi</t>
   </si>
   <si>
     <t>Akeboshi</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Harmonia_(RYTHEM%E5%96%AE%E6%9B%B2)</t>
+    <t>https://zh.wikipedia.org/zh-cn/Harmonia_(RYTHEM%E5%96%AE%E6%9B%B2)</t>
   </si>
   <si>
     <t>Harmonia (RYTHEM單曲)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Rythem</t>
+    <t>https://zh.wikipedia.org/zh-cn/Rythem</t>
   </si>
   <si>
     <t>Rythem</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Orange_Range</t>
+    <t>https://zh.wikipedia.org/zh-cn/Orange_Range</t>
   </si>
   <si>
     <t>Orange Range</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A9%98%E5%AD%90%E6%96%B0%E6%A8%82%E5%9C%92</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%A9%98%E5%AD%90%E6%96%B0%E6%A8%82%E5%9C%92</t>
   </si>
   <si>
     <t>橘子新乐园</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%97%A5%E6%9C%AC</t>
   </si>
   <si>
     <t>日本</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%9C%9F%E4%B8%89</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%98%9F%E6%9C%9F%E4%B8%89</t>
   </si>
   <si>
     <t>星期三</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
     <t>台湾</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A6%99%E6%B8%AF</t>
   </si>
   <si>
     <t>香港</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B6%AB%E9%9B%BB%E8%A6%96</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%84%A1%E7%B6%AB%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
     <t>无线电视</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%84%A1%E7%B6%AB%E9%9B%BB%E8%A6%96</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A6%99%E6%B8%AF%E7%84%A1%E7%B6%AB%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
     <t>香港无线电视</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
   </si>
   <si>
     <t>中国大陆</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE%E7%94%B5%E8%A7%86%E5%8F%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8F%B0%E6%B9%BE%E7%94%B5%E8%A7%86%E5%8F%B0</t>
   </si>
   <si>
     <t>台湾电视台</t>
@@ -536,67 +536,67 @@
     <t>ja-ふぉうちゅんドッグす</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%BF%E6%80%AA%E7%9B%9C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A9%E4%BD%BF%E6%80%AA%E7%9B%9C</t>
   </si>
   <si>
     <t>天使怪盗</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A3%8B%E9%AD%82</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%A3%8B%E9%AD%82</t>
   </si>
   <si>
     <t>棋魂</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/BLEACH_(%E5%8B%95%E7%95%AB)</t>
+    <t>https://zh.wikipedia.org/zh-cn/BLEACH_(%E5%8B%95%E7%95%AB)</t>
   </si>
   <si>
     <t>BLEACH (动画)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E5%86%A0%E8%BB%8D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%BB%E8%A6%96%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
     <t>電視冠軍</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%AC%A5%E5%A3%AB%E6%98%9F%E7%9F%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%81%96%E9%AC%A5%E5%A3%AB%E6%98%9F%E7%9F%A2</t>
   </si>
   <si>
     <t>圣斗士星矢</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E7%AD%86%E8%A8%98_(%E5%8B%95%E7%95%AB)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AD%BB%E4%BA%A1%E7%AD%86%E8%A8%98_(%E5%8B%95%E7%95%AB)</t>
   </si>
   <si>
     <t>死亡笔记 (动画)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B4%89_-KARAS-</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B4%89_-KARAS-</t>
   </si>
   <si>
     <t>鸦 -KARAS-</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8B%BC%E4%B9%8B%E9%8D%8A%E9%87%91%E8%A1%93%E5%B8%AB_FULLMETAL_ALCHEMIST</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%8B%BC%E4%B9%8B%E9%8D%8A%E9%87%91%E8%A1%93%E5%B8%AB_FULLMETAL_ALCHEMIST</t>
   </si>
   <si>
     <t>钢之炼金术师 FULLMETAL ALCHEMIST</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%8B%95%E6%88%B0%E5%A3%ABGUNDAM_00</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%A9%9F%E5%8B%95%E6%88%B0%E5%A3%ABGUNDAM_00</t>
   </si>
   <si>
     <t>机动战士高达 00</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E9%AD%82_(%E5%8B%95%E7%95%AB)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%8A%80%E9%AD%82_(%E5%8B%95%E7%95%AB)</t>
   </si>
   <si>
     <t>银魂 (动画)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%9B%E9%80%86%E7%9A%84%E9%AD%AF%E9%AD%AF%E4%BF%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8F%9B%E9%80%86%E7%9A%84%E9%AD%AF%E9%AD%AF%E4%BF%AE</t>
   </si>
   <si>
     <t>叛逆的鲁鲁修</t>
@@ -608,145 +608,145 @@
     <t>ja-少年ハリウッド</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/FAIRY_TAIL_(%E5%8B%95%E7%95%AB)</t>
+    <t>https://zh.wikipedia.org/zh-cn/FAIRY_TAIL_(%E5%8B%95%E7%95%AB)</t>
   </si>
   <si>
     <t>FAIRY TAIL (动画)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3%E5%8B%95%E7%95%AB%E9%9B%86%E6%95%B8%E5%88%97%E8%A1%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3%E5%8B%95%E7%95%AB%E9%9B%86%E6%95%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
     <t>火影忍者疾风传动画集数列表</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%8A%87%E5%A0%B4%E7%89%88%EF%BC%9A%E5%A4%A7%E6%B4%BB%E5%8A%87%EF%BC%81%E9%9B%AA%E5%A7%AC%E5%BF%8D%E6%B3%95%E5%B8%96%EF%BC%81%EF%BC%81</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%8A%87%E5%A0%B4%E7%89%88%EF%BC%9A%E5%A4%A7%E6%B4%BB%E5%8A%87%EF%BC%81%E9%9B%AA%E5%A7%AC%E5%BF%8D%E6%B3%95%E5%B8%96%EF%BC%81%EF%BC%81</t>
   </si>
   <si>
     <t>火影忍者剧场版：大活剧！雪姬忍法帖！！</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%8A%87%E5%A0%B4%E7%89%88%EF%BC%9A%E5%A4%A7%E6%BF%80%E7%AA%81%EF%BC%81%E5%A4%A2%E5%B9%BB%E7%9A%84%E5%9C%B0%E5%BA%95%E9%81%BA%E8%B7%A1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%8A%87%E5%A0%B4%E7%89%88%EF%BC%9A%E5%A4%A7%E6%BF%80%E7%AA%81%EF%BC%81%E5%A4%A2%E5%B9%BB%E7%9A%84%E5%9C%B0%E5%BA%95%E9%81%BA%E8%B7%A1</t>
   </si>
   <si>
     <t>火影忍者剧场版：大激突！梦幻的地底遗迹</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%8A%87%E5%A0%B4%E7%89%88%EF%BC%9A%E5%A4%A7%E8%88%88%E5%A5%AE%EF%BC%81%E4%B8%89%E6%97%A5%E6%9C%88%E5%B3%B6%E4%B8%8A%E7%9A%84%E5%8B%95%E7%89%A9%E9%A8%B7%E4%BA%82</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%8A%87%E5%A0%B4%E7%89%88%EF%BC%9A%E5%A4%A7%E8%88%88%E5%A5%AE%EF%BC%81%E4%B8%89%E6%97%A5%E6%9C%88%E5%B3%B6%E4%B8%8A%E7%9A%84%E5%8B%95%E7%89%A9%E9%A8%B7%E4%BA%82</t>
   </si>
   <si>
     <t>火影忍者剧场版：大兴奋！三日月岛上的动物骚乱</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3%E5%8A%87%E5%A0%B4%E7%89%88</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3%E5%8A%87%E5%A0%B4%E7%89%88</t>
   </si>
   <si>
     <t>火影忍者疾风传剧场版</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3%E5%8A%87%E5%A0%B4%E7%89%88_%E7%B5%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3%E5%8A%87%E5%A0%B4%E7%89%88_%E7%B5%86</t>
   </si>
   <si>
     <t>火影忍者疾风传剧场版 绊</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3%E5%8A%87%E5%A0%B4%E7%89%88_%E7%81%AB%E6%84%8F%E5%BF%97%E7%9A%84%E7%B9%BC%E6%89%BF%E8%80%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3%E5%8A%87%E5%A0%B4%E7%89%88_%E7%81%AB%E6%84%8F%E5%BF%97%E7%9A%84%E7%B9%BC%E6%89%BF%E8%80%85</t>
   </si>
   <si>
     <t>火影忍者疾风传剧场版 火意志的继承者</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3%E5%8A%87%E5%A0%B4%E7%89%88_%E5%A4%B1%E8%90%BD%E4%B9%8B%E5%A1%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3%E5%8A%87%E5%A0%B4%E7%89%88_%E5%A4%B1%E8%90%BD%E4%B9%8B%E5%A1%94</t>
   </si>
   <si>
     <t>火影忍者疾风传剧场版 失落之塔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3%E5%8A%87%E5%A0%B4%E7%89%88_%E8%A1%80%E7%8D%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3%E5%8A%87%E5%A0%B4%E7%89%88_%E8%A1%80%E7%8D%84</t>
   </si>
   <si>
     <t>火影忍者疾风传剧场版 血狱</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3%E5%8A%87%E5%A0%B4%E7%89%88_%E5%BF%8D%E8%80%85%E4%B9%8B%E8%B7%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3%E5%8A%87%E5%A0%B4%E7%89%88_%E5%BF%8D%E8%80%85%E4%B9%8B%E8%B7%AF</t>
   </si>
   <si>
     <t>火影忍者疾风传剧场版 忍者之路</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%8A%87%E5%A0%B4%E7%89%88%EF%BC%9A%E6%9C%80%E7%B5%82%E7%AB%A0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%8A%87%E5%A0%B4%E7%89%88%EF%BC%9A%E6%9C%80%E7%B5%82%E7%AB%A0</t>
   </si>
   <si>
     <t>火影忍者剧场版：最终章</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%8A%87%E5%A0%B4%E7%89%88%EF%BC%9A%E6%85%95%E7%95%99%E4%BA%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%8A%87%E5%A0%B4%E7%89%88%EF%BC%9A%E6%85%95%E7%95%99%E4%BA%BA</t>
   </si>
   <si>
     <t>火影忍者剧场版：博人传</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8D%85%E9%96%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8D%85%E9%96%80</t>
   </si>
   <si>
     <t>狮门</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%9F%8E%E5%8B%81%E7%88%86%E5%85%92%E6%AD%8C%E9%A0%92%E7%8D%8E%E7%A6%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%B0%E5%9F%8E%E5%8B%81%E7%88%86%E5%85%92%E6%AD%8C%E9%A0%92%E7%8D%8E%E7%A6%AE</t>
   </si>
   <si>
     <t>新城劲爆儿歌颁奖礼</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/WonderSwan</t>
+    <t>https://zh.wikipedia.org/zh-cn/WonderSwan</t>
   </si>
   <si>
     <t>WonderSwan</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/PlayStation</t>
+    <t>https://zh.wikipedia.org/zh-cn/PlayStation</t>
   </si>
   <si>
     <t>PlayStation</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Xbox_360</t>
+    <t>https://zh.wikipedia.org/zh-cn/Xbox_360</t>
   </si>
   <si>
     <t>Xbox 360</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Xbox_One</t>
+    <t>https://zh.wikipedia.org/zh-cn/Xbox_One</t>
   </si>
   <si>
     <t>Xbox One</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/PlayStation_2</t>
+    <t>https://zh.wikipedia.org/zh-cn/PlayStation_2</t>
   </si>
   <si>
     <t>PlayStation 2</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/PlayStation_3</t>
+    <t>https://zh.wikipedia.org/zh-cn/PlayStation_3</t>
   </si>
   <si>
     <t>PlayStation 3</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/PlayStation_4</t>
+    <t>https://zh.wikipedia.org/zh-cn/PlayStation_4</t>
   </si>
   <si>
     <t>PlayStation 4</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/PlayStation_Portable</t>
+    <t>https://zh.wikipedia.org/zh-cn/PlayStation_Portable</t>
   </si>
   <si>
     <t>PlayStation Portable</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Nintendo_GameCube</t>
+    <t>https://zh.wikipedia.org/zh-cn/Nintendo_GameCube</t>
   </si>
   <si>
     <t>Nintendo GameCube</t>
@@ -758,97 +758,97 @@
     <t>NARUTO -ナルト- 激闘忍者大戦!</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Wii</t>
+    <t>https://zh.wikipedia.org/zh-cn/Wii</t>
   </si>
   <si>
     <t>Wii</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Game_Boy_Advance</t>
+    <t>https://zh.wikipedia.org/zh-cn/Game_Boy_Advance</t>
   </si>
   <si>
     <t>Game Boy Advance</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E8%A7%92%E8%89%B2%E6%89%AE%E6%BC%94%E9%81%8A%E6%88%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%BB%E5%AD%90%E8%A7%92%E8%89%B2%E6%89%AE%E6%BC%94%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
     <t>电子角色扮演游戏</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%BB%E5%A4%A9%E5%A0%82DS</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BB%BB%E5%A4%A9%E5%A0%82DS</t>
   </si>
   <si>
     <t>任天堂DS</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%BB%E5%A4%A9%E5%A0%823DS</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BB%BB%E5%A4%A9%E5%A0%823DS</t>
   </si>
   <si>
     <t>任天堂3DS</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E9%9B%BB%E8%85%A6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%80%8B%E4%BA%BA%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
     <t>个人电脑</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3%EF%BC%9A%E7%B5%82%E6%A5%B5%E9%A2%A8%E6%9A%B44</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3%EF%BC%9A%E7%B5%82%E6%A5%B5%E9%A2%A8%E6%9A%B44</t>
   </si>
   <si>
     <t>火影忍者疾风传：终极风暴4</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%88%9E%E5%8F%B0%E5%8A%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%88%9E%E5%8F%B0%E5%8A%87</t>
   </si>
   <si>
     <t>舞台剧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E8%88%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AD%8C%E8%88%9E</t>
   </si>
   <si>
     <t>歌舞</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%9C%E6%8A%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%9C%E6%8A%80</t>
   </si>
   <si>
     <t>杂技</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A0%88%E8%B3%80%E5%81%A5%E5%A4%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A0%88%E8%B3%80%E5%81%A5%E5%A4%AA</t>
   </si>
   <si>
     <t>须贺健太</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%83%B5%E5%A0%B1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AF%8F%E6%97%A5%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
     <t>每日邮报</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E6%99%BA%E6%B3%A2%E9%BC%AC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AE%87%E6%99%BA%E6%B3%A2%E9%BC%AC</t>
   </si>
   <si>
     <t>宇智波鼬</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E7%BD%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%BA%E6%B0%91%E7%BD%91</t>
   </si>
   <si>
     <t>人民网</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%87%E5%98%9B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%96%87%E5%98%9B</t>
   </si>
   <si>
     <t>喇嘛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%95%AB%E6%96%B0%E8%81%9E%E7%B6%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8B%95%E7%95%AB%E6%96%B0%E8%81%9E%E7%B6%B2</t>
   </si>
   <si>
     <t>动画新闻网</t>
@@ -860,61 +860,61 @@
     <t>Narutopedia, the Naruto Encyclopedia Wiki</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/Template_talk:%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85</t>
   </si>
   <si>
     <t>Template talk-火影忍者</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%8D%A1%E8%A5%BF%E5%A4%96%E5%82%B3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%A1%E5%8D%A1%E8%A5%BF%E5%A4%96%E5%82%B3</t>
   </si>
   <si>
     <t>卡卡西外传</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%B4%9B%E5%85%8B%E7%9A%84%E9%9D%92%E6%98%A5%E5%85%A8%E5%8A%9B%E5%BF%8D%E5%82%B3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%8E%E6%B4%9B%E5%85%8B%E7%9A%84%E9%9D%92%E6%98%A5%E5%85%A8%E5%8A%9B%E5%BF%8D%E5%82%B3</t>
   </si>
   <si>
     <t>李洛克的青春全力忍传</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/BORUTO-%E7%81%AB%E5%BD%B1%E6%96%B0%E4%B8%96%E4%BB%A3-NARUTO_NEXT_GENERATIONS-</t>
+    <t>https://zh.wikipedia.org/zh-cn/BORUTO-%E7%81%AB%E5%BD%B1%E6%96%B0%E4%B8%96%E4%BB%A3-NARUTO_NEXT_GENERATIONS-</t>
   </si>
   <si>
     <t>BORUTO-火影新世代-NARUTO NEXT GENERATIONS-</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3_%E6%BF%80%E9%AC%A5%E5%BF%8D%E8%80%85%E5%A4%A7%E6%88%B0%EF%BC%81EX</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3_%E6%BF%80%E9%AC%A5%E5%BF%8D%E8%80%85%E5%A4%A7%E6%88%B0%EF%BC%81EX</t>
   </si>
   <si>
     <t>火影忍者疾风传 激斗忍者大战！EX</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3_%E6%BF%80%E9%AC%A5%E5%BF%8D%E8%80%85%E5%A4%A7%E6%88%B0%EF%BC%81EX2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3_%E6%BF%80%E9%AC%A5%E5%BF%8D%E8%80%85%E5%A4%A7%E6%88%B0%EF%BC%81EX2</t>
   </si>
   <si>
     <t>火影忍者疾风传 激斗忍者大战！EX2</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85_%E6%9C%A8%E8%91%89%E7%9A%84%E5%BF%8D%E8%80%85%E8%8B%B1%E9%9B%84%E5%80%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85_%E6%9C%A8%E8%91%89%E7%9A%84%E5%BF%8D%E8%80%85%E8%8B%B1%E9%9B%84%E5%80%91</t>
   </si>
   <si>
     <t>火影忍者 木叶的忍者英雄们</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85_%E6%9C%A8%E8%91%89%E7%9A%84%E5%BF%8D%E8%80%85%E8%8B%B1%E9%9B%84%E5%80%912</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85_%E6%9C%A8%E8%91%89%E7%9A%84%E5%BF%8D%E8%80%85%E8%8B%B1%E9%9B%84%E5%80%912</t>
   </si>
   <si>
     <t>火影忍者 木叶的忍者英雄们2</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85_%E6%9C%A8%E8%91%89%E7%9A%84%E5%BF%8D%E8%80%85%E8%8B%B1%E9%9B%84%E5%80%913</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85_%E6%9C%A8%E8%91%89%E7%9A%84%E5%BF%8D%E8%80%85%E8%8B%B1%E9%9B%84%E5%80%913</t>
   </si>
   <si>
     <t>火影忍者 木叶的忍者英雄们3</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%EF%BC%9A%E7%A9%B6%E6%9E%81%E5%BF%8D%E8%80%85%E9%A3%8E%E6%9A%B4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%EF%BC%9A%E7%A9%B6%E6%9E%81%E5%BF%8D%E8%80%85%E9%A3%8E%E6%9A%B4</t>
   </si>
   <si>
     <t>火影忍者：究极忍者风暴</t>
@@ -950,235 +950,241 @@
     <t>en-Naruto Shippuden- Ultimate Ninja Storm Revolution</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3_%E7%B5%82%E6%A5%B5%E9%A2%A8%E6%9A%B44</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E7%96%BE%E9%A2%A8%E5%82%B3_%E7%B5%82%E6%A5%B5%E9%A2%A8%E6%9A%B44</t>
   </si>
   <si>
     <t>火影忍者疾风传 终极风暴4</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%97%E6%9C%A8%E5%8D%A1%E5%8D%A1%E8%A5%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%97%97%E6%9C%A8%E5%8D%A1%E5%8D%A1%E8%A5%BF</t>
   </si>
   <si>
     <t>旗木卡卡西</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E9%87%8E%E6%AB%BB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%98%A5%E9%87%8E%E6%AB%BB</t>
   </si>
   <si>
     <t>春野樱</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E4%B8%AD%E4%BD%90%E4%BA%95</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B1%B1%E4%B8%AD%E4%BD%90%E4%BA%95</t>
   </si>
   <si>
     <t>山中佐井</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8C%BF%E9%A3%9E%E9%98%BF%E6%96%AF%E7%8E%9B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8C%BF%E9%A3%9E%E9%98%BF%E6%96%AF%E7%8E%9B</t>
   </si>
   <si>
     <t>猿飞阿斯玛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E8%89%AF%E9%B9%BF%E4%B8%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A5%88%E8%89%AF%E9%B9%BF%E4%B8%B8</t>
   </si>
   <si>
     <t>奈良鹿丸</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%8B%E9%81%93%E4%B8%81%E6%AC%A1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A7%8B%E9%81%93%E4%B8%81%E6%AC%A1</t>
   </si>
   <si>
     <t>秋道丁次</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E4%B8%AD%E4%BA%95%E9%87%8E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B1%B1%E4%B8%AD%E4%BA%95%E9%87%8E</t>
   </si>
   <si>
     <t>山中井野</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%87%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%98%BF%E5%87%AF</t>
   </si>
   <si>
     <t>阿凯</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%B4%9B%E5%85%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%8E%E6%B4%9B%E5%85%8B</t>
   </si>
   <si>
     <t>李洛克</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%90%91%E5%AE%81%E6%AC%A1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%97%A5%E5%90%91%E5%AE%81%E6%AC%A1</t>
   </si>
   <si>
     <t>日向宁次</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%A4%A9_(%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A9%E5%A4%A9_(%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85)</t>
   </si>
   <si>
     <t>天天 (火影忍者)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%95%E6%97%A5%E7%BA%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%95%E6%97%A5%E7%BA%A2</t>
   </si>
   <si>
     <t>夕日红</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%AC%E5%A1%9A%E7%89%99</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8A%AC%E5%A1%9A%E7%89%99</t>
   </si>
   <si>
     <t>犬冢牙</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E5%A5%B3%E5%BF%97%E4%B9%83</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B2%B9%E5%A5%B3%E5%BF%97%E4%B9%83</t>
   </si>
   <si>
     <t>油女志乃</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%90%91%E9%9B%8F%E7%94%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%97%A5%E5%90%91%E9%9B%8F%E7%94%B0</t>
   </si>
   <si>
     <t>日向雏田</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%9D%A5%E4%B9%9F_(%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%87%AA%E6%9D%A5%E4%B9%9F_(%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85)</t>
   </si>
   <si>
     <t>自来也 (火影忍者)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%9B%87%E4%B8%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A7%E8%9B%87%E4%B8%B8</t>
   </si>
   <si>
     <t>大蛇丸</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%B1%E6%89%8B_(%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B6%B1%E6%89%8B_(%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85)</t>
   </si>
   <si>
     <t>纲手 (火影忍者)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E6%99%BA%E6%B3%A2%E5%B8%B6%E5%9C%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AE%87%E6%99%BA%E6%B3%A2%E5%B8%B6%E5%9C%9F</t>
   </si>
   <si>
     <t>宇智波带土</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%AF%E5%B8%88%E5%85%9C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%8D%AF%E5%B8%88%E5%85%9C</t>
   </si>
   <si>
     <t>药师兜</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%91%E6%84%9B%E7%BE%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%88%91%E6%84%9B%E7%BE%85</t>
   </si>
   <si>
     <t>我爱罗</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E6%99%BA%E6%B3%A2%E6%96%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AE%87%E6%99%BA%E6%B3%A2%E6%96%91</t>
   </si>
   <si>
     <t>宇智波斑</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%93_(%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%99%93_(%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85)</t>
   </si>
   <si>
     <t>晓 (火影忍者)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%A9%E6%B6%A1%E5%8D%9A%E4%BA%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%BC%A9%E6%B6%A1%E5%8D%9A%E4%BA%BA</t>
   </si>
   <si>
     <t>漩涡博人</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E6%89%8B%E6%9F%B1%E9%96%93</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%83%E6%89%8B%E6%9F%B1%E9%96%93</t>
   </si>
   <si>
     <t>千手柱间</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E6%89%8B%E6%89%89%E9%96%93</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%83%E6%89%8B%E6%89%89%E9%96%93</t>
   </si>
   <si>
     <t>千手扉间</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8C%BF%E9%A3%9B%E8%92%9C%E5%B1%B1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8C%BF%E9%A3%9B%E8%92%9C%E5%B1%B1</t>
   </si>
   <si>
     <t>猿飞日斩</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%A2%A8%E6%B9%8A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B3%A2%E9%A2%A8%E6%B9%8A</t>
   </si>
   <si>
     <t>波风水门</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E7%BB%A7%E9%99%90%E7%95%8C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A1%80%E7%BB%A7%E9%99%90%E7%95%8C</t>
   </si>
   <si>
     <t>血继限界</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%99%E8%BD%AE%E7%9C%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%86%99%E8%BD%AE%E7%9C%BC</t>
   </si>
   <si>
     <t>写轮眼</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%85%8B%E6%8B%89_(%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9F%A5%E5%85%8B%E6%8B%89_(%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85)</t>
   </si>
   <si>
     <t>查克拉 (火影忍者)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E4%B9%8B%E5%9B%BD_(%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E4%B9%8B%E5%9B%BD_(%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85)</t>
   </si>
   <si>
     <t>火之国 (火影忍者)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B4%E6%97%A5%E6%9C%AC%E5%8A%A8%E7%94%BB%E5%9C%A8%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86%E4%B8%8B%E6%9E%B6%E4%BA%8B%E4%BB%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9C%A8%E5%8F%B6%E6%9D%91%E8%A7%92%E8%89%B2%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>木叶村角色列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/2015%E5%B9%B4%E6%97%A5%E6%9C%AC%E5%8A%A8%E7%94%BB%E5%9C%A8%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86%E4%B8%8B%E6%9E%B6%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
     <t>2015年日本动画在中国大陆下架事件</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%ACESP</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%B1%E4%BA%ACESP</t>
   </si>
   <si>
     <t>东京ESP</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E9%97%87%E9%B4%89</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%B1%E4%BA%AC%E9%97%87%E9%B4%89</t>
   </si>
   <si>
     <t>东京暗鸦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%84%E7%94%9F%E5%85%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AF%84%E7%94%9F%E5%85%BD</t>
   </si>
   <si>
     <t>寄生兽</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E9%9D%A2%E9%A8%8E%E5%A3%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%AC%BC%E9%9D%A2%E9%A8%8E%E5%A3%AB</t>
   </si>
   <si>
     <t>鬼面骑士</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E4%BB%A3%E7%90%86%E4%BA%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AD%BB%E4%BA%A1%E4%BB%A3%E7%90%86%E4%BA%BA</t>
   </si>
   <si>
     <t>死亡代理人</t>
@@ -1190,295 +1196,286 @@
     <t>en-Inferno Cop</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%99%AC%E8%A1%80%E7%8B%82%E8%A5%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%99%AC%E8%A1%80%E7%8B%82%E8%A5%B2</t>
   </si>
   <si>
     <t>噬血狂袭</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%9C%92%E9%BB%98%E7%A4%BA%E9%8C%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AD%B8%E5%9C%92%E9%BB%98%E7%A4%BA%E9%8C%84</t>
   </si>
   <si>
     <t>学园默示录</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A6%96%E7%B2%BE%E7%9A%84%E6%97%8B%E5%BE%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A6%96%E7%B2%BE%E7%9A%84%E6%97%8B%E5%BE%8B</t>
   </si>
   <si>
     <t>妖精的旋律</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%B8%E8%A1%80%E9%AC%BC%E5%90%8C%E7%9B%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%90%B8%E8%A1%80%E9%AC%BC%E5%90%8C%E7%9B%9F</t>
   </si>
   <si>
     <t>吸血鬼同盟</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%80%E5%8A%8D%E7%A5%9E%E5%9F%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%88%80%E5%8A%8D%E7%A5%9E%E5%9F%9F</t>
   </si>
   <si>
     <t>刀剑神域</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E6%AE%98%E9%9F%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%B1%E4%BA%AC%E6%AE%98%E9%9F%BF</t>
   </si>
   <si>
     <t>东京残响</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%A4%A7%E7%BD%AA_(%E6%BC%AB%E7%95%AB)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%83%E5%A4%A7%E7%BD%AA_(%E6%BC%AB%E7%95%AB)</t>
   </si>
   <si>
     <t>七大罪 (漫画)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A6%96%E7%B2%BE%E7%8B%A9%E7%8D%B5%E8%80%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A6%96%E7%B2%BE%E7%8B%A9%E7%8D%B5%E8%80%85</t>
   </si>
   <si>
     <t>妖精狩猎者</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E8%B3%B4%E5%8B%87%E8%80%85%E7%9A%84%E9%AC%BC%E7%95%9C%E7%BE%8E%E5%AD%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%84%A1%E8%B3%B4%E5%8B%87%E8%80%85%E7%9A%84%E9%AC%BC%E7%95%9C%E7%BE%8E%E5%AD%B8</t>
   </si>
   <si>
     <t>无赖勇者的鬼畜美学</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6%E5%A5%B3%E7%A5%9E%E7%9A%84%E5%A5%B3%E5%85%92%E5%80%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A8%98%E6%86%B6%E5%A5%B3%E7%A5%9E%E7%9A%84%E5%A5%B3%E5%85%92%E5%80%91</t>
   </si>
   <si>
     <t>记忆女神的女儿们</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%86%E7%82%B8%E9%A0%AD%E6%AD%A6%E5%A3%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%88%86%E7%82%B8%E9%A0%AD%E6%AD%A6%E5%A3%AB</t>
   </si>
   <si>
     <t>爆炸头武士</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%83%A1%E9%AD%94%E4%BA%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A5%B3%E6%83%A1%E9%AD%94%E4%BA%BA</t>
   </si>
   <si>
     <t>女恶魔人</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8D%B5%E9%AD%94%E6%88%B0%E8%A8%98</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8D%B5%E9%AD%94%E6%88%B0%E8%A8%98</t>
   </si>
   <si>
     <t>猎魔战记</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/TOKKO_%E7%89%B9%E5%85%AC</t>
+    <t>https://zh.wikipedia.org/zh-cn/TOKKO_%E7%89%B9%E5%85%AC</t>
   </si>
   <si>
     <t>TOKKO 特公</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E5%96%B0%E7%A8%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%B1%E4%BA%AC%E5%96%B0%E7%A8%AE</t>
   </si>
   <si>
     <t>东京喰种</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%88%E8%BB%8A%E6%88%B0%E9%9A%8A%E7%89%B9%E6%80%A5%E8%80%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%83%88%E8%BB%8A%E6%88%B0%E9%9A%8A%E7%89%B9%E6%80%A5%E8%80%85</t>
   </si>
   <si>
     <t>烈车战队特急者</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%9B%9A%E6%A8%82%E5%9C%92</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AD%BB%E5%9B%9A%E6%A8%82%E5%9C%92</t>
   </si>
   <si>
     <t>死囚乐园</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%83%A1%E9%AD%94%E7%8D%B5%E4%BA%BA%E7%B3%BB%E5%88%97</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%83%A1%E9%AD%94%E7%8D%B5%E4%BA%BA%E7%B3%BB%E5%88%97</t>
   </si>
   <si>
     <t>恶魔猎人系列</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E6%93%8A%E7%9A%84%E5%B7%A8%E4%BA%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%80%B2%E6%93%8A%E7%9A%84%E5%B7%A8%E4%BA%BA</t>
   </si>
   <si>
     <t>进击的巨人</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/PSYCHO-PASS</t>
+    <t>https://zh.wikipedia.org/zh-cn/PSYCHO-PASS</t>
   </si>
   <si>
     <t>PSYCHO-PASS</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%9F%B7%E4%BA%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%BB%91%E5%9F%B7%E4%BA%8B</t>
   </si>
   <si>
     <t>黑执事</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9C%83%E5%A4%A7%E4%BD%9C%E6%88%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B4%84%E6%9C%83%E5%A4%A7%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
     <t>约会大作战</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9A%97%E6%AE%BA%E6%95%99%E5%AE%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9A%97%E6%AE%BA%E6%95%99%E5%AE%A4</t>
   </si>
   <si>
     <t>暗杀教室</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%91%E7%9A%84%E6%9C%8B%E5%8F%8B%E5%BE%88%E5%B0%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%88%91%E7%9A%84%E6%9C%8B%E5%8F%8B%E5%BE%88%E5%B0%91</t>
   </si>
   <si>
     <t>我的朋友很少</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Little_Busters!</t>
+    <t>https://zh.wikipedia.org/zh-cn/Little_Busters!</t>
   </si>
   <si>
     <t>Little Busters!</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/CHAOS;HEAD</t>
+    <t>https://zh.wikipedia.org/zh-cn/CHAOS;HEAD</t>
   </si>
   <si>
     <t>CHAOS;HEAD</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E9%9F%B3%E5%B3%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%88%9D%E9%9F%B3%E5%B3%B6</t>
   </si>
   <si>
     <t>初音岛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%91%E7%9A%84%E5%A6%B9%E5%A6%B9%E5%93%AA%E6%9C%89%E9%80%99%E9%BA%BC%E5%8F%AF%E6%84%9B%EF%BC%81_(%E5%8B%95%E7%95%AB)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%88%91%E7%9A%84%E5%A6%B9%E5%A6%B9%E5%93%AA%E6%9C%89%E9%80%99%E9%BA%BC%E5%8F%AF%E6%84%9B%EF%BC%81_(%E5%8B%95%E7%95%AB)</t>
   </si>
   <si>
     <t>我的妹妹哪有这么可爱！ (动画)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%99%8D%E4%B9%8B%E7%89%A9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A9%E9%99%8D%E4%B9%8B%E7%89%A9</t>
   </si>
   <si>
     <t>天降之物</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9A%AE%E8%9F%AC%E6%82%B2%E9%B3%B4%E6%99%82</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9A%AE%E8%9F%AC%E6%82%B2%E9%B3%B4%E6%99%82</t>
   </si>
   <si>
     <t>暮蝉悲鸣时</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%83%A1%E9%AD%94%E9%AB%98%E6%A0%A1D%C3%97D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%83%A1%E9%AD%94%E9%AB%98%E6%A0%A1D%C3%97D</t>
   </si>
   <si>
     <t>恶魔高校D×D</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E7%95%8C%E5%A5%B3%E7%8E%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B5%90%E7%95%8C%E5%A5%B3%E7%8E%8B</t>
   </si>
   <si>
     <t>结界女王</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%AA%E6%9C%89%E7%A5%9E%E7%9F%A5%E9%81%93%E7%9A%84%E4%B8%96%E7%95%8C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8F%AA%E6%9C%89%E7%A5%9E%E7%9F%A5%E9%81%93%E7%9A%84%E4%B8%96%E7%95%8C</t>
   </si>
   <si>
     <t>只有神知道的世界</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%8B%E9%A2%A8%E7%AE%A1%E5%AE%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%97%8B%E9%A2%A8%E7%AE%A1%E5%AE%B6</t>
   </si>
   <si>
     <t>旋风管家</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B6%E4%B9%8B%E4%BD%BF%E9%AD%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%B6%E4%B9%8B%E4%BD%BF%E9%AD%94</t>
   </si>
   <si>
     <t>零之使魔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E8%8E%89%E4%BA%9E%E7%8B%82%E7%86%B1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%91%AA%E8%8E%89%E4%BA%9E%E7%8B%82%E7%86%B1</t>
   </si>
   <si>
     <t>玛莉亚狂热</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%87%BA%E6%96%BC%E8%97%8D_(%E6%BC%AB%E7%95%AB)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9D%92%E5%87%BA%E6%96%BC%E8%97%8D_(%E6%BC%AB%E7%95%AB)</t>
   </si>
   <si>
     <t>青出于蓝 (漫画)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%AD%A9%E8%90%AC%E6%AD%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A5%B3%E5%AD%A9%E8%90%AC%E6%AD%B2</t>
   </si>
   <si>
     <t>女孩万岁</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%A8%82%E5%A4%A9%E5%B8%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%A5%B5%E6%A8%82%E5%A4%A9%E5%B8%AB</t>
   </si>
   <si>
     <t>极乐天师</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Another</t>
+    <t>https://zh.wikipedia.org/zh-cn/Another</t>
   </si>
   <si>
     <t>Another</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%B8%E4%BD%93%E6%B4%BE%E5%AF%B9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%B8%E4%BD%93%E6%B4%BE%E5%AF%B9</t>
   </si>
   <si>
     <t>尸体派对</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E8%8A%B1%E7%B9%9A%E4%BA%82</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%99%BE%E8%8A%B1%E7%B9%9A%E4%BA%82</t>
   </si>
   <si>
     <t>百花缭乱</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B0%91%E5%A5%B3%E6%AD%BB%E7%A5%9E_%E9%82%84%E6%88%91H%E4%B9%8B%E9%AD%82%EF%BC%81</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%8E%E5%B0%91%E5%A5%B3%E6%AD%BB%E7%A5%9E_%E9%82%84%E6%88%91H%E4%B9%8B%E9%AD%82%EF%BC%81</t>
   </si>
   <si>
     <t>美少女死神 还我H之魂！</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%91%E7%9A%84%E7%8B%90%E4%BB%99%E5%A5%B3%E5%8F%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%88%91%E7%9A%84%E7%8B%90%E4%BB%99%E5%A5%B3%E5%8F%8B</t>
   </si>
   <si>
     <t>我的狐仙女友</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/BLOOD-C</t>
+    <t>https://zh.wikipedia.org/zh-cn/BLOOD-C</t>
   </si>
   <si>
     <t>BLOOD-C</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%93%8A%E6%96%87%E5%BA%AB_FIGHTING_CLIMAX</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%BB%E6%93%8A%E6%96%87%E5%BA%AB_FIGHTING_CLIMAX</t>
   </si>
   <si>
     <t>电击文库 FIGHTING CLIMAX</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%86%E7%82%B8%E9%A0%AD%E6%AD%A6%E5%A3%AB_(%E9%81%8A%E6%88%B2)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%88%86%E7%82%B8%E9%A0%AD%E6%AD%A6%E5%A3%AB_(%E9%81%8A%E6%88%B2)</t>
   </si>
   <si>
     <t>爆炸头武士 (游戏)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
   <si>
     <t>https://zh.wikiquote.org/wiki/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85</t>
@@ -2343,7 +2340,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G343"/>
+  <dimension ref="A1:G342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5956,7 +5953,7 @@
         <v>296</v>
       </c>
       <c r="G157" t="n">
-        <v>1151</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5979,7 +5976,7 @@
         <v>298</v>
       </c>
       <c r="G158" t="n">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -6140,7 +6137,7 @@
         <v>312</v>
       </c>
       <c r="G165" t="n">
-        <v>600</v>
+        <v>624</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -6163,7 +6160,7 @@
         <v>109</v>
       </c>
       <c r="G166" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -6991,7 +6988,7 @@
         <v>378</v>
       </c>
       <c r="G202" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -7014,7 +7011,7 @@
         <v>380</v>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -7129,7 +7126,7 @@
         <v>390</v>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -7152,7 +7149,7 @@
         <v>392</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -7382,7 +7379,7 @@
         <v>412</v>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -7405,7 +7402,7 @@
         <v>414</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -8233,7 +8230,7 @@
         <v>486</v>
       </c>
       <c r="G256" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -8250,13 +8247,13 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F257" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -8273,13 +8270,13 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F258" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -8296,10 +8293,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F259" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -8319,10 +8316,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F260" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -8342,10 +8339,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F261" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -8365,10 +8362,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F262" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -8388,10 +8385,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F263" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -8411,10 +8408,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F264" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -8434,10 +8431,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F265" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -8457,10 +8454,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F266" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -8480,10 +8477,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F267" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -8503,10 +8500,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F268" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -8526,10 +8523,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F269" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -8549,10 +8546,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F270" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -8572,10 +8569,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F271" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -8595,10 +8592,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F272" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -8618,10 +8615,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F273" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -8641,13 +8638,13 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F274" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -8664,13 +8661,13 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F275" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -8687,10 +8684,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F276" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -8710,10 +8707,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F277" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -8733,10 +8730,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F278" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -8756,10 +8753,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F279" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -8779,10 +8776,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F280" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -8802,10 +8799,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F281" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -8825,10 +8822,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F282" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -8848,10 +8845,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F283" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -8871,10 +8868,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F284" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -8894,10 +8891,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F285" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -8917,10 +8914,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F286" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -8940,10 +8937,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F287" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -8963,10 +8960,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F288" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -8986,10 +8983,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F289" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -9009,10 +9006,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F290" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -9032,10 +9029,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F291" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -9055,10 +9052,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F292" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -9078,10 +9075,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F293" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -9101,10 +9098,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F294" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -9124,10 +9121,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F295" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -9147,10 +9144,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F296" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -9170,10 +9167,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F297" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -9193,10 +9190,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F298" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -9216,10 +9213,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F299" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -9239,10 +9236,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F300" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -9262,10 +9259,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F301" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -9285,10 +9282,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F302" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -9308,10 +9305,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F303" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -9331,10 +9328,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F304" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -9354,10 +9351,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F305" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -9377,10 +9374,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F306" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -9400,10 +9397,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F307" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -9423,10 +9420,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F308" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -9446,10 +9443,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F309" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -9469,10 +9466,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F310" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -9492,10 +9489,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F311" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -9515,10 +9512,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F312" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -9538,10 +9535,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F313" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -9561,13 +9558,13 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F314" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -9584,13 +9581,13 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F315" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -9607,10 +9604,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F316" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -9630,10 +9627,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F317" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -9653,10 +9650,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F318" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -9676,10 +9673,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F319" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -9699,10 +9696,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F320" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -9722,10 +9719,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F321" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -9745,10 +9742,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F322" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -9768,10 +9765,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F323" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -9791,10 +9788,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F324" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -9814,10 +9811,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F325" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -9837,10 +9834,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F326" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -9860,10 +9857,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F327" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -9883,10 +9880,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F328" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -9906,10 +9903,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F329" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -9929,10 +9926,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F330" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -9952,10 +9949,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F331" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -9975,10 +9972,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F332" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -9998,10 +9995,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F333" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -10021,10 +10018,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F334" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -10044,10 +10041,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F335" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -10067,10 +10064,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F336" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -10090,10 +10087,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F337" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -10113,10 +10110,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F338" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -10136,10 +10133,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F339" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -10159,10 +10156,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F340" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -10182,10 +10179,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F341" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -10205,35 +10202,12 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F342" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G342" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="s">
-        <v>0</v>
-      </c>
-      <c r="C343" t="s">
-        <v>1</v>
-      </c>
-      <c r="D343" t="n">
-        <v>342</v>
-      </c>
-      <c r="E343" t="s">
-        <v>658</v>
-      </c>
-      <c r="F343" t="s">
-        <v>659</v>
-      </c>
-      <c r="G343" t="n">
         <v>1</v>
       </c>
     </row>

--- a/xlsx/_wiki_火影忍者_intext.xlsx
+++ b/xlsx/_wiki_火影忍者_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="651">
   <si>
     <t>火影忍者</t>
   </si>
@@ -620,6 +620,24 @@
     <t>火影忍者疾风传动画集数列表</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%B0%E5%9F%8E%E5%8B%81%E7%88%86%E5%85%92%E6%AD%8C%E9%A0%92%E7%8D%8E%E7%A6%AE</t>
+  </si>
+  <si>
+    <t>新城劲爆儿歌颁奖礼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AF%8F%E6%97%A5%E9%83%B5%E5%A0%B1</t>
+  </si>
+  <si>
+    <t>每日邮报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AE%87%E6%99%BA%E6%B3%A2%E9%BC%AC</t>
+  </si>
+  <si>
+    <t>宇智波鼬</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/zh-cn/%E7%81%AB%E5%BD%B1%E5%BF%8D%E8%80%85%E5%8A%87%E5%A0%B4%E7%89%88%EF%BC%9A%E5%A4%A7%E6%B4%BB%E5%8A%87%EF%BC%81%E9%9B%AA%E5%A7%AC%E5%BF%8D%E6%B3%95%E5%B8%96%EF%BC%81%EF%BC%81</t>
   </si>
   <si>
@@ -686,18 +704,36 @@
     <t>火影忍者剧场版：博人传</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%88%9E%E5%8F%B0%E5%8A%87</t>
+  </si>
+  <si>
+    <t>舞台剧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AD%8C%E8%88%9E</t>
+  </si>
+  <si>
+    <t>歌舞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%9C%E6%8A%80</t>
+  </si>
+  <si>
+    <t>杂技</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A0%88%E8%B3%80%E5%81%A5%E5%A4%AA</t>
+  </si>
+  <si>
+    <t>须贺健太</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/zh-cn/%E7%8D%85%E9%96%80</t>
   </si>
   <si>
     <t>狮门</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/zh-cn/%E6%96%B0%E5%9F%8E%E5%8B%81%E7%88%86%E5%85%92%E6%AD%8C%E9%A0%92%E7%8D%8E%E7%A6%AE</t>
-  </si>
-  <si>
-    <t>新城劲爆儿歌颁奖礼</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/zh-cn/WonderSwan</t>
   </si>
   <si>
@@ -800,42 +836,6 @@
     <t>火影忍者疾风传：终极风暴4</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/zh-cn/%E8%88%9E%E5%8F%B0%E5%8A%87</t>
-  </si>
-  <si>
-    <t>舞台剧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/zh-cn/%E6%AD%8C%E8%88%9E</t>
-  </si>
-  <si>
-    <t>歌舞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%9C%E6%8A%80</t>
-  </si>
-  <si>
-    <t>杂技</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/zh-cn/%E9%A0%88%E8%B3%80%E5%81%A5%E5%A4%AA</t>
-  </si>
-  <si>
-    <t>须贺健太</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/zh-cn/%E6%AF%8F%E6%97%A5%E9%83%B5%E5%A0%B1</t>
-  </si>
-  <si>
-    <t>每日邮报</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/zh-cn/%E5%AE%87%E6%99%BA%E6%B3%A2%E9%BC%AC</t>
-  </si>
-  <si>
-    <t>宇智波鼬</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/zh-cn/%E4%BA%BA%E6%B0%91%E7%BD%91</t>
   </si>
   <si>
@@ -1098,30 +1098,6 @@
   </si>
   <si>
     <t>漩涡博人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%83%E6%89%8B%E6%9F%B1%E9%96%93</t>
-  </si>
-  <si>
-    <t>千手柱间</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%83%E6%89%8B%E6%89%89%E9%96%93</t>
-  </si>
-  <si>
-    <t>千手扉间</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/zh-cn/%E7%8C%BF%E9%A3%9B%E8%92%9C%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>猿飞日斩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/zh-cn/%E6%B3%A2%E9%A2%A8%E6%B9%8A</t>
-  </si>
-  <si>
-    <t>波风水门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/zh-cn/%E8%A1%80%E7%BB%A7%E9%99%90%E7%95%8C</t>
@@ -2340,7 +2316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G342"/>
+  <dimension ref="A1:G337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2388,7 +2364,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4734,7 +4710,7 @@
         <v>202</v>
       </c>
       <c r="G104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4780,7 +4756,7 @@
         <v>206</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4803,7 +4779,7 @@
         <v>208</v>
       </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4826,7 +4802,7 @@
         <v>210</v>
       </c>
       <c r="G108" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4849,7 +4825,7 @@
         <v>212</v>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4895,7 +4871,7 @@
         <v>216</v>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4964,7 +4940,7 @@
         <v>222</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4987,7 +4963,7 @@
         <v>224</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -5010,7 +4986,7 @@
         <v>226</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -5194,7 +5170,7 @@
         <v>242</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -5240,7 +5216,7 @@
         <v>246</v>
       </c>
       <c r="G126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5309,7 +5285,7 @@
         <v>252</v>
       </c>
       <c r="G129" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5378,7 +5354,7 @@
         <v>258</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5401,7 +5377,7 @@
         <v>260</v>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5424,7 +5400,7 @@
         <v>262</v>
       </c>
       <c r="G134" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5447,7 +5423,7 @@
         <v>264</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5539,7 +5515,7 @@
         <v>272</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5786,10 +5762,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F150" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -5809,10 +5785,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F151" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -5832,10 +5808,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F152" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5855,10 +5831,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F153" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G153" t="n">
         <v>6</v>
@@ -5953,7 +5929,7 @@
         <v>296</v>
       </c>
       <c r="G157" t="n">
-        <v>1163</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5976,7 +5952,7 @@
         <v>298</v>
       </c>
       <c r="G158" t="n">
-        <v>537</v>
+        <v>552</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -6137,7 +6113,7 @@
         <v>312</v>
       </c>
       <c r="G165" t="n">
-        <v>624</v>
+        <v>594</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -6183,7 +6159,7 @@
         <v>314</v>
       </c>
       <c r="G167" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -6574,7 +6550,7 @@
         <v>348</v>
       </c>
       <c r="G184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6729,13 +6705,13 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>361</v>
+        <v>112</v>
       </c>
       <c r="F191" t="s">
-        <v>362</v>
+        <v>113</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6752,10 +6728,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F192" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -6775,10 +6751,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F193" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -6798,13 +6774,13 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F194" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6821,13 +6797,13 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>313</v>
+        <v>116</v>
       </c>
       <c r="F195" t="s">
-        <v>314</v>
+        <v>117</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6844,13 +6820,13 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>112</v>
+        <v>367</v>
       </c>
       <c r="F196" t="s">
-        <v>113</v>
+        <v>368</v>
       </c>
       <c r="G196" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6896,7 +6872,7 @@
         <v>372</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6919,7 +6895,7 @@
         <v>374</v>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6936,13 +6912,13 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>116</v>
+        <v>375</v>
       </c>
       <c r="F200" t="s">
-        <v>117</v>
+        <v>376</v>
       </c>
       <c r="G200" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6959,10 +6935,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F201" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -6982,10 +6958,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F202" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7005,13 +6981,13 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F203" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G203" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -7028,13 +7004,13 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F204" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -7051,10 +7027,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F205" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7074,10 +7050,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F206" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7097,10 +7073,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F207" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7120,10 +7096,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F208" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7143,13 +7119,13 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F209" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -7166,10 +7142,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F210" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7189,10 +7165,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F211" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7212,10 +7188,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F212" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7235,10 +7211,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F213" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7258,10 +7234,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F214" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7281,13 +7257,13 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F215" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -7304,10 +7280,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F216" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7327,10 +7303,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F217" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -7350,10 +7326,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F218" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -7373,10 +7349,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F219" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -7396,13 +7372,13 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F220" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -7419,10 +7395,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F221" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -7442,10 +7418,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F222" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -7465,10 +7441,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F223" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -7488,10 +7464,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F224" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -7511,10 +7487,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F225" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -7534,10 +7510,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F226" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -7557,10 +7533,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F227" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -7580,10 +7556,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F228" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -7603,10 +7579,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F229" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -7626,10 +7602,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F230" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -7649,10 +7625,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F231" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -7672,10 +7648,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F232" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -7695,10 +7671,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F233" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -7718,10 +7694,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F234" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -7741,10 +7717,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F235" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -7764,10 +7740,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F236" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -7787,10 +7763,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F237" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -7810,10 +7786,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F238" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -7833,10 +7809,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F239" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -7856,10 +7832,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F240" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -7879,10 +7855,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F241" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -7902,10 +7878,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F242" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -7925,10 +7901,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F243" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -7948,10 +7924,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F244" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -7971,10 +7947,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F245" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -7994,10 +7970,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F246" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -8017,10 +7993,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F247" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -8040,10 +8016,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F248" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -8063,10 +8039,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F249" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -8086,10 +8062,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F250" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -8109,10 +8085,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F251" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -8132,13 +8108,13 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F252" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -8155,10 +8131,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F253" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -8178,10 +8154,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F254" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -8201,10 +8177,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F255" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -8224,10 +8200,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F256" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -8247,13 +8223,13 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F257" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -8270,10 +8246,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F258" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -8293,10 +8269,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F259" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -8316,10 +8292,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F260" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -8339,10 +8315,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F261" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -8362,10 +8338,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F262" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -8385,10 +8361,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F263" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -8408,10 +8384,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F264" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -8431,10 +8407,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F265" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -8454,10 +8430,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F266" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -8477,10 +8453,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F267" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -8500,10 +8476,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F268" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -8523,13 +8499,13 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F269" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -8546,10 +8522,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F270" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -8569,10 +8545,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F271" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -8592,10 +8568,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F272" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -8615,10 +8591,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F273" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -8638,13 +8614,13 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F274" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -8661,10 +8637,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F275" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -8684,10 +8660,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F276" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -8707,10 +8683,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F277" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -8730,10 +8706,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F278" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -8753,10 +8729,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F279" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -8776,10 +8752,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F280" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -8799,10 +8775,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F281" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -8822,10 +8798,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F282" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -8845,10 +8821,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F283" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -8868,10 +8844,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F284" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -8891,10 +8867,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F285" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -8914,10 +8890,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F286" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -8937,10 +8913,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F287" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -8960,10 +8936,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F288" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -8983,10 +8959,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -9006,10 +8982,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -9029,10 +9005,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -9052,10 +9028,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -9075,10 +9051,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F293" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -9098,10 +9074,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F294" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -9121,10 +9097,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F295" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -9144,10 +9120,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F296" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -9167,10 +9143,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F297" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -9190,10 +9166,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F298" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -9213,10 +9189,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F299" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -9236,10 +9212,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F300" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -9259,10 +9235,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F301" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -9282,10 +9258,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F302" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -9305,10 +9281,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F303" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -9328,10 +9304,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F304" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -9351,10 +9327,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F305" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -9374,10 +9350,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F306" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -9397,10 +9373,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F307" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -9420,10 +9396,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F308" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -9443,13 +9419,13 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F309" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -9466,10 +9442,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F310" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -9489,10 +9465,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F311" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -9512,10 +9488,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F312" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -9535,10 +9511,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F313" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -9558,13 +9534,13 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F314" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -9581,10 +9557,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F315" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -9604,10 +9580,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F316" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -9627,10 +9603,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F317" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -9650,10 +9626,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F318" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -9673,10 +9649,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F319" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -9696,10 +9672,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F320" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -9719,10 +9695,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F321" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -9742,10 +9718,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F322" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -9765,10 +9741,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F323" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -9788,10 +9764,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F324" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -9811,10 +9787,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F325" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -9834,10 +9810,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F326" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -9857,10 +9833,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F327" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -9880,10 +9856,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F328" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -9903,10 +9879,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F329" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -9926,10 +9902,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F330" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -9949,10 +9925,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F331" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -9972,10 +9948,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F332" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -9995,10 +9971,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="F333" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -10018,10 +9994,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F334" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -10041,10 +10017,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F335" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -10064,10 +10040,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F336" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -10087,127 +10063,12 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F337" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G337" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="s">
-        <v>0</v>
-      </c>
-      <c r="C338" t="s">
-        <v>1</v>
-      </c>
-      <c r="D338" t="n">
-        <v>337</v>
-      </c>
-      <c r="E338" t="s">
-        <v>649</v>
-      </c>
-      <c r="F338" t="s">
-        <v>650</v>
-      </c>
-      <c r="G338" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="s">
-        <v>0</v>
-      </c>
-      <c r="C339" t="s">
-        <v>1</v>
-      </c>
-      <c r="D339" t="n">
-        <v>338</v>
-      </c>
-      <c r="E339" t="s">
-        <v>651</v>
-      </c>
-      <c r="F339" t="s">
-        <v>652</v>
-      </c>
-      <c r="G339" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="s">
-        <v>0</v>
-      </c>
-      <c r="C340" t="s">
-        <v>1</v>
-      </c>
-      <c r="D340" t="n">
-        <v>339</v>
-      </c>
-      <c r="E340" t="s">
-        <v>653</v>
-      </c>
-      <c r="F340" t="s">
-        <v>654</v>
-      </c>
-      <c r="G340" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="s">
-        <v>0</v>
-      </c>
-      <c r="C341" t="s">
-        <v>1</v>
-      </c>
-      <c r="D341" t="n">
-        <v>340</v>
-      </c>
-      <c r="E341" t="s">
-        <v>655</v>
-      </c>
-      <c r="F341" t="s">
-        <v>656</v>
-      </c>
-      <c r="G341" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="s">
-        <v>0</v>
-      </c>
-      <c r="C342" t="s">
-        <v>1</v>
-      </c>
-      <c r="D342" t="n">
-        <v>341</v>
-      </c>
-      <c r="E342" t="s">
-        <v>657</v>
-      </c>
-      <c r="F342" t="s">
-        <v>658</v>
-      </c>
-      <c r="G342" t="n">
         <v>1</v>
       </c>
     </row>
